--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf16-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.474535196064465</v>
+        <v>0.09755033333333334</v>
       </c>
       <c r="H2">
-        <v>0.474535196064465</v>
+        <v>0.292651</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1198375636346959</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1198375636346959</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.57772146876226</v>
+        <v>5.243417666666667</v>
       </c>
       <c r="N2">
-        <v>4.57772146876226</v>
+        <v>15.730253</v>
       </c>
       <c r="O2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974575</v>
       </c>
       <c r="P2">
-        <v>0.9282720566928842</v>
+        <v>0.8253998362974574</v>
       </c>
       <c r="Q2">
-        <v>2.17228995470761</v>
+        <v>0.5114971411892223</v>
       </c>
       <c r="R2">
-        <v>2.17228995470761</v>
+        <v>4.603474270703</v>
       </c>
       <c r="S2">
-        <v>0.9282720566928842</v>
+        <v>0.09891390540636416</v>
       </c>
       <c r="T2">
-        <v>0.9282720566928842</v>
+        <v>0.09891390540636412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H3">
+        <v>0.292651</v>
+      </c>
+      <c r="I3">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="J3">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N3">
+        <v>2.037896</v>
+      </c>
+      <c r="O3">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P3">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q3">
+        <v>0.06626581136622221</v>
+      </c>
+      <c r="R3">
+        <v>0.5963923022959999</v>
+      </c>
+      <c r="S3">
+        <v>0.01281455881046591</v>
+      </c>
+      <c r="T3">
+        <v>0.01281455881046591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.09755033333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.292651</v>
+      </c>
+      <c r="I4">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="J4">
+        <v>0.1198375636346959</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="M4">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.289588</v>
+      </c>
+      <c r="O4">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P4">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q4">
+        <v>0.04193324642088889</v>
+      </c>
+      <c r="R4">
+        <v>0.3773992177880001</v>
+      </c>
+      <c r="S4">
+        <v>0.008109099417865837</v>
+      </c>
+      <c r="T4">
+        <v>0.008109099417865836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.474535196064465</v>
-      </c>
-      <c r="H3">
-        <v>0.474535196064465</v>
-      </c>
-      <c r="I3">
+      <c r="G5">
+        <v>0.716471</v>
+      </c>
+      <c r="H5">
+        <v>2.149413</v>
+      </c>
+      <c r="I5">
+        <v>0.8801624363653041</v>
+      </c>
+      <c r="J5">
+        <v>0.880162436365304</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="M5">
+        <v>5.243417666666667</v>
+      </c>
+      <c r="N5">
+        <v>15.730253</v>
+      </c>
+      <c r="O5">
+        <v>0.8253998362974575</v>
+      </c>
+      <c r="P5">
+        <v>0.8253998362974574</v>
+      </c>
+      <c r="Q5">
+        <v>3.756756699054333</v>
+      </c>
+      <c r="R5">
+        <v>33.810810291489</v>
+      </c>
+      <c r="S5">
+        <v>0.7264859308910934</v>
+      </c>
+      <c r="T5">
+        <v>0.7264859308910931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="G6">
+        <v>0.716471</v>
+      </c>
+      <c r="H6">
+        <v>2.149413</v>
+      </c>
+      <c r="I6">
+        <v>0.8801624363653041</v>
+      </c>
+      <c r="J6">
+        <v>0.880162436365304</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.037896</v>
+      </c>
+      <c r="O6">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="P6">
+        <v>0.1069327381315001</v>
+      </c>
+      <c r="Q6">
+        <v>0.4866977950053333</v>
+      </c>
+      <c r="R6">
+        <v>4.380280155048</v>
+      </c>
+      <c r="S6">
+        <v>0.09411817932103415</v>
+      </c>
+      <c r="T6">
+        <v>0.09411817932103414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G7">
+        <v>0.716471</v>
+      </c>
+      <c r="H7">
+        <v>2.149413</v>
+      </c>
+      <c r="I7">
+        <v>0.8801624363653041</v>
+      </c>
+      <c r="J7">
+        <v>0.880162436365304</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="N3">
-        <v>0.353722320541402</v>
-      </c>
-      <c r="O3">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="P3">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="Q3">
-        <v>0.1678536907304917</v>
-      </c>
-      <c r="R3">
-        <v>0.1678536907304917</v>
-      </c>
-      <c r="S3">
-        <v>0.07172794330711593</v>
-      </c>
-      <c r="T3">
-        <v>0.07172794330711593</v>
+      <c r="M7">
+        <v>0.4298626666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.289588</v>
+      </c>
+      <c r="O7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="P7">
+        <v>0.06766742557104236</v>
+      </c>
+      <c r="Q7">
+        <v>0.3079841346493334</v>
+      </c>
+      <c r="R7">
+        <v>2.771857211844</v>
+      </c>
+      <c r="S7">
+        <v>0.05955832615317652</v>
+      </c>
+      <c r="T7">
+        <v>0.05955832615317651</v>
       </c>
     </row>
   </sheetData>
